--- a/Chapter_3/example_data/data.xlsx
+++ b/Chapter_3/example_data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julhashkazi/Documents/NoteBook/PyBook/Chapter_3/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF83610-DFCB-9F4B-BE23-216AB2AF15D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F462056-CFD2-704F-9146-9C48B3A51268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="71820" yWindow="-5800" windowWidth="28040" windowHeight="17440" xr2:uid="{BB7DA2AD-302E-2E4A-825E-008B41D63946}"/>
   </bookViews>
@@ -41,79 +41,79 @@
     <t>index</t>
   </si>
   <si>
-    <t>feature 1</t>
-  </si>
-  <si>
-    <t>feature 2</t>
-  </si>
-  <si>
-    <t>feature 3</t>
-  </si>
-  <si>
-    <t>feature 4</t>
-  </si>
-  <si>
-    <t>feature 5</t>
-  </si>
-  <si>
-    <t>sample 1</t>
-  </si>
-  <si>
-    <t>sample 2</t>
-  </si>
-  <si>
-    <t>sample 3</t>
-  </si>
-  <si>
-    <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
-    <t>sample 6</t>
-  </si>
-  <si>
-    <t>sample 7</t>
-  </si>
-  <si>
-    <t>sample 8</t>
-  </si>
-  <si>
-    <t>sample 9</t>
-  </si>
-  <si>
-    <t>sample 10</t>
-  </si>
-  <si>
-    <t>sample 11</t>
-  </si>
-  <si>
-    <t>sample 12</t>
-  </si>
-  <si>
-    <t>sample 13</t>
-  </si>
-  <si>
-    <t>sample 14</t>
-  </si>
-  <si>
-    <t>sample 15</t>
-  </si>
-  <si>
-    <t>sample 16</t>
-  </si>
-  <si>
-    <t>sample 17</t>
-  </si>
-  <si>
-    <t>sample 18</t>
-  </si>
-  <si>
-    <t>sample 19</t>
-  </si>
-  <si>
-    <t>sample 20</t>
+    <t>sample_1</t>
+  </si>
+  <si>
+    <t>sample_2</t>
+  </si>
+  <si>
+    <t>sample_3</t>
+  </si>
+  <si>
+    <t>sample_4</t>
+  </si>
+  <si>
+    <t>sample_5</t>
+  </si>
+  <si>
+    <t>sample_6</t>
+  </si>
+  <si>
+    <t>sample_7</t>
+  </si>
+  <si>
+    <t>sample_8</t>
+  </si>
+  <si>
+    <t>sample_9</t>
+  </si>
+  <si>
+    <t>sample_10</t>
+  </si>
+  <si>
+    <t>sample_11</t>
+  </si>
+  <si>
+    <t>sample_12</t>
+  </si>
+  <si>
+    <t>sample_13</t>
+  </si>
+  <si>
+    <t>sample_14</t>
+  </si>
+  <si>
+    <t>sample_15</t>
+  </si>
+  <si>
+    <t>sample_16</t>
+  </si>
+  <si>
+    <t>sample_17</t>
+  </si>
+  <si>
+    <t>sample_18</t>
+  </si>
+  <si>
+    <t>sample_19</t>
+  </si>
+  <si>
+    <t>sample_20</t>
+  </si>
+  <si>
+    <t>feature_1</t>
+  </si>
+  <si>
+    <t>feature_2</t>
+  </si>
+  <si>
+    <t>feature_3</t>
+  </si>
+  <si>
+    <t>feature_4</t>
+  </si>
+  <si>
+    <t>feature_5</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,24 +505,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>11</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>22</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
